--- a/biology/Zoologie/Baxter_(film,_1989)/Baxter_(film,_1989).xlsx
+++ b/biology/Zoologie/Baxter_(film,_1989)/Baxter_(film,_1989).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baxter est un film fantastique français réalisé par Jérôme Boivin, sorti en 1989.
-Échec commercial à sa sortie, le film est depuis considéré comme culte[1].
+Échec commercial à sa sortie, le film est depuis considéré comme culte.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Baxter est un Bull Terrier blanc. Ce chien a la particularité de penser et, à travers ses trois maîtres, il va se faire une opinion de l'espèce humaine. Compagnon d'une vieille dame seule, il s'ennuie, elle lui demande de rester toujours avec lui. Adopté par un jeune couple, il est délaissé à la naissance de leur bébé. Enfin, recueilli par le jeune Charles, il découvrira en lui un maître violent et morbide...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Baxter
 Sous-titre : Méfiez-vous du chien qui pense...
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maxime Leroux : Baxter (voix)
 Lise Delamare : Madame Deville
@@ -635,9 +653,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mention spécial du jury 1989 au Festival International du Film Fantastique d'Avoriaz[2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mention spécial du jury 1989 au Festival International du Film Fantastique d'Avoriaz</t>
         </is>
       </c>
     </row>
@@ -665,12 +685,14 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le film a été tourné en Belgique.
 Plusieurs Bull Terriers ont joué le rôle de Baxter.
-D'autres acteurs ont été envisagés pour la voix off de Baxter : un enfant et Michael Lonsdale[3].
-Le film a fait 148 790 entrées en France[4] — dont 58 984 à Paris[5] — lors de sa sortie en 1989.</t>
+D'autres acteurs ont été envisagés pour la voix off de Baxter : un enfant et Michael Lonsdale.
+Le film a fait 148 790 entrées en France — dont 58 984 à Paris — lors de sa sortie en 1989.</t>
         </is>
       </c>
     </row>
@@ -698,10 +720,12 @@
           <t>Sortie vidéo</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est initialement sorti en VHS uniquement aux États-Unis en 1997, avant de sortir en France en DVD en 2002, édité par Studio Canal dans la collection Série Noire[6].
-Il bénéficie d'une sortie Blu-ray en France en 2019 en exclusivité Fnac[7], avant une sortie généralisée en 2020[8]. Le film sortira en mai 2021 aux États-Unis[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est initialement sorti en VHS uniquement aux États-Unis en 1997, avant de sortir en France en DVD en 2002, édité par Studio Canal dans la collection Série Noire.
+Il bénéficie d'une sortie Blu-ray en France en 2019 en exclusivité Fnac, avant une sortie généralisée en 2020. Le film sortira en mai 2021 aux États-Unis.
 </t>
         </is>
       </c>
